--- a/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/Feasibility Tester.xlsx
+++ b/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/Feasibility Tester.xlsx
@@ -5,27 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d34c976a67baf8c/Projects/Big Data School/BigDataAnalyst_ProjectDocumentation/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Projects\Big Data School\BigDataAnalyst_ProjectDocumentation\Sprint03_Data_Operation\_jonhonda_dat\special_prj\Input_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="1B239CB1FE9772A8A71CFADDC518BBC08B06F559" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{CC041B8E-D433-476F-B776-A5256DC635C3}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="1B239CB1FE9772A8A71CFADDC518BBC08B06F559" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{3CCC7EAD-5737-4858-9570-D05B5DECB5BF}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="24" windowWidth="16104" windowHeight="12408" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="108" yWindow="24" windowWidth="16104" windowHeight="12408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feasibility Question Maker" sheetId="1" r:id="rId1"/>
-    <sheet name="Model Formatted Questions" sheetId="2" r:id="rId2"/>
-    <sheet name="Readme" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
   <si>
     <t>Test Variable</t>
   </si>
@@ -258,16 +253,10 @@
     <t>Feas-21</t>
   </si>
   <si>
-    <t>Enter your questions in the Feasibility Question Maker Tab</t>
-  </si>
-  <si>
-    <t>Model Formatted Questions tab presents data in format model can read.</t>
-  </si>
-  <si>
-    <t>Once complete, copy the Model Formatted Questions tab to a new file. Save that file as a .csv file.</t>
-  </si>
-  <si>
-    <t>This file assists you in making feasibility questions of a format that the model can accept as input. Input goes to the bmp_feasibility_test_definitions table of the model database</t>
+    <t>question_expression</t>
+  </si>
+  <si>
+    <t>feas_id</t>
   </si>
 </sst>
 </file>
@@ -686,10 +675,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -697,445 +686,472 @@
     <col min="2" max="2" width="91" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="5" max="5" width="28.77734375" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="str">
+        <f>_xlfn.CONCAT(C2,D2,E2)</f>
+        <v>OFFSITE_SD_Exist=Yes</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F22" si="0">_xlfn.CONCAT(C3,D3,E3)</f>
+        <v>GW_Risk!=High</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>GW_Risk!=High</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>Soil_Type!=Rock</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>Soil_Type!=Rock</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>Soil_Type!=Clay</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>Count_CB&gt;0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>Runoff_Type="*Piped Outlet"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>TFMR_Exist=Yes</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>DS_SS_Exist=Yes</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>67</v>
-      </c>
       <c r="B12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
         <v>48</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
       </c>
       <c r="E12" s="2">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>Fac_Slope&lt;0.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>Can_Add_SD=Yes</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>Pave_Area&gt;BMP_Size</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>Unpave_Area&gt;BMP_Size</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
         <v>33</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>Pave_Area&gt;Det_Size</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="C17" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>EM_Area&gt;0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>Dmg_Pave&gt;0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>Fac_Type!=Closed Sanitary Landfill</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>100_Year_FP=No</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>Runoff_Type=Sheet Flow</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" t="s">
-        <v>56</v>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>Ex_Struct_BMP=None</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="87" orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:A5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/Feasibility Tester.xlsx
+++ b/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/Feasibility Tester.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Projects\Big Data School\BigDataAnalyst_ProjectDocumentation\Sprint03_Data_Operation\_jonhonda_dat\special_prj\Input_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonHonda\OneDrive\Projects\Big Data School\BigDataAnalyst_ProjectDocumentation\Sprint03_Data_Operation\_jonhonda_dat\special_prj\Input_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="1B239CB1FE9772A8A71CFADDC518BBC08B06F559" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{3CCC7EAD-5737-4858-9570-D05B5DECB5BF}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="1B239CB1FE9772A8A71CFADDC518BBC08B06F559" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{03F76A3A-79DD-440F-B08F-373365F2DC24}"/>
   <bookViews>
     <workbookView xWindow="108" yWindow="24" windowWidth="16104" windowHeight="12408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="81">
   <si>
     <t>Test Variable</t>
   </si>
@@ -49,42 +49,12 @@
     <t>Does Facility have a downstream sewer collection system?</t>
   </si>
   <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>TFMR_Exist</t>
-  </si>
-  <si>
     <t>Does Facility have existing catch basins?</t>
   </si>
   <si>
-    <t>DS_SS_Exist</t>
-  </si>
-  <si>
-    <t>Soil_Type</t>
-  </si>
-  <si>
-    <t>Rock</t>
-  </si>
-  <si>
-    <t>GW_Risk</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Clay</t>
-  </si>
-  <si>
     <t>English Feasibility Questions</t>
   </si>
   <si>
-    <t>Fac_Slope</t>
-  </si>
-  <si>
     <t>&gt;</t>
   </si>
   <si>
@@ -97,63 +67,12 @@
     <t>Does Facility have Area of Damaged Pavement &gt; 0 square feet?</t>
   </si>
   <si>
-    <t>Fac_Type</t>
-  </si>
-  <si>
-    <t>Closed Sanitary Landfill</t>
-  </si>
-  <si>
-    <t>Dmg_Pave</t>
-  </si>
-  <si>
-    <t>EM_Area</t>
-  </si>
-  <si>
-    <t>Unpave_Area</t>
-  </si>
-  <si>
-    <t>BMP_Size</t>
-  </si>
-  <si>
-    <t>Can_Add_SD</t>
-  </si>
-  <si>
-    <t>Pave_Area</t>
-  </si>
-  <si>
-    <t>Det_Size</t>
-  </si>
-  <si>
-    <t>100_Year_FP</t>
-  </si>
-  <si>
     <t>!=</t>
   </si>
   <si>
-    <t>Ex_Struct_BMP</t>
-  </si>
-  <si>
-    <t>Runoff_Type</t>
-  </si>
-  <si>
-    <t>"*Piped Outlet"</t>
-  </si>
-  <si>
     <t>Is runoff type appropriate for sheet-flow treatment</t>
   </si>
   <si>
-    <t>Sheet Flow</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Count_CB</t>
-  </si>
-  <si>
-    <t>OFFSITE_SD_Exist</t>
-  </si>
-  <si>
     <t>Does Facility have medium or low risk of groundwater (high groundwater makes bmp infeasible)?</t>
   </si>
   <si>
@@ -187,9 +106,6 @@
     <t>Is Facility clear of existing structural BMPs</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>Feas-1</t>
   </si>
   <si>
@@ -257,6 +173,96 @@
   </si>
   <si>
     <t>feas_id</t>
+  </si>
+  <si>
+    <t>db_var.OFFSITE_SD_Exist</t>
+  </si>
+  <si>
+    <t>db_var.GW_Risk</t>
+  </si>
+  <si>
+    <t>db_var.Soil_Type</t>
+  </si>
+  <si>
+    <t>db_var.Count_CB</t>
+  </si>
+  <si>
+    <t>db_var.Runoff_Type</t>
+  </si>
+  <si>
+    <t>db_var.TFMR_Exist</t>
+  </si>
+  <si>
+    <t>db_var.DS_SS_Exist</t>
+  </si>
+  <si>
+    <t>db_var.Fac_Slope</t>
+  </si>
+  <si>
+    <t>db_var.Can_Add_SD</t>
+  </si>
+  <si>
+    <t>db_var.Pave_Area</t>
+  </si>
+  <si>
+    <t>db_var.Unpave_Area</t>
+  </si>
+  <si>
+    <t>db_var.EM_Area</t>
+  </si>
+  <si>
+    <t>db_var.Dmg_Pave</t>
+  </si>
+  <si>
+    <t>db_var.Fac_Type</t>
+  </si>
+  <si>
+    <t>db_var.100_Year_FP</t>
+  </si>
+  <si>
+    <t>db_var.Ex_Struct_BMP</t>
+  </si>
+  <si>
+    <t>val.Yes</t>
+  </si>
+  <si>
+    <t>val.High</t>
+  </si>
+  <si>
+    <t>val.Rock</t>
+  </si>
+  <si>
+    <t>val.Clay</t>
+  </si>
+  <si>
+    <t>val.0</t>
+  </si>
+  <si>
+    <t>val."*Piped Outlet"</t>
+  </si>
+  <si>
+    <t>val.0.08</t>
+  </si>
+  <si>
+    <t>val.Det_Size</t>
+  </si>
+  <si>
+    <t>val.Closed Sanitary Landfill</t>
+  </si>
+  <si>
+    <t>val.No</t>
+  </si>
+  <si>
+    <t>val.Sheet Flow</t>
+  </si>
+  <si>
+    <t>val.None</t>
+  </si>
+  <si>
+    <t>db_expr.BMP_Size</t>
+  </si>
+  <si>
+    <t>==</t>
   </si>
 </sst>
 </file>
@@ -678,7 +684,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,10 +697,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -706,448 +712,448 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F2" t="str">
         <f>_xlfn.CONCAT(C2,D2,E2)</f>
-        <v>OFFSITE_SD_Exist=Yes</v>
+        <v>db_var.OFFSITE_SD_Exist==val.Yes</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F22" si="0">_xlfn.CONCAT(C3,D3,E3)</f>
-        <v>GW_Risk!=High</v>
+        <v>db_var.GW_Risk!=val.High</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>GW_Risk!=High</v>
+        <v>db_var.GW_Risk!=val.High</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>Soil_Type!=Rock</v>
+        <v>db_var.Soil_Type!=val.Rock</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>Soil_Type!=Rock</v>
+        <v>db_var.Soil_Type!=val.Rock</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>Soil_Type!=Clay</v>
+        <v>db_var.Soil_Type!=val.Clay</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>Count_CB&gt;0</v>
+        <v>db_var.Count_CB&gt;val.0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>Runoff_Type="*Piped Outlet"</v>
+        <v>db_var.Runoff_Type==val."*Piped Outlet"</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>TFMR_Exist=Yes</v>
+        <v>db_var.TFMR_Exist==val.Yes</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>DS_SS_Exist=Yes</v>
+        <v>db_var.DS_SS_Exist==val.Yes</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.08</v>
+        <v>21</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>Fac_Slope&lt;0.08</v>
+        <v>db_var.Fac_Slope&lt;val.0.08</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>Can_Add_SD=Yes</v>
+        <v>db_var.Can_Add_SD==val.Yes</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>Pave_Area&gt;BMP_Size</v>
+        <v>db_var.Pave_Area&gt;db_expr.BMP_Size</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>Unpave_Area&gt;BMP_Size</v>
+        <v>db_var.Unpave_Area&gt;db_expr.BMP_Size</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>Pave_Area&gt;Det_Size</v>
+        <v>db_var.Pave_Area&gt;val.Det_Size</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>EM_Area&gt;0</v>
+        <v>db_var.EM_Area&gt;val.0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>Dmg_Pave&gt;0</v>
+        <v>db_var.Dmg_Pave&gt;val.0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>Fac_Type!=Closed Sanitary Landfill</v>
+        <v>db_var.Fac_Type!=val.Closed Sanitary Landfill</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>100_Year_FP=No</v>
+        <v>db_var.100_Year_FP==val.No</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>Runoff_Type=Sheet Flow</v>
+        <v>db_var.Runoff_Type==val.Sheet Flow</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>Ex_Struct_BMP=None</v>
+        <v>db_var.Ex_Struct_BMP==val.None</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/Feasibility Tester.xlsx
+++ b/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/Feasibility Tester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonHonda\OneDrive\Projects\Big Data School\BigDataAnalyst_ProjectDocumentation\Sprint03_Data_Operation\_jonhonda_dat\special_prj\Input_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="1B239CB1FE9772A8A71CFADDC518BBC08B06F559" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{03F76A3A-79DD-440F-B08F-373365F2DC24}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="1B239CB1FE9772A8A71CFADDC518BBC08B06F559" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{FEE3F923-7594-4781-AA1D-28D26BB813EC}"/>
   <bookViews>
     <workbookView xWindow="108" yWindow="24" windowWidth="16104" windowHeight="12408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
     <t>&gt;/=/&lt;</t>
   </si>
   <si>
-    <t>Required Value (Expression)</t>
-  </si>
-  <si>
     <t>Does Facility have downstream stormdrain collection system?</t>
   </si>
   <si>
@@ -169,60 +166,9 @@
     <t>Feas-21</t>
   </si>
   <si>
-    <t>question_expression</t>
-  </si>
-  <si>
     <t>feas_id</t>
   </si>
   <si>
-    <t>db_var.OFFSITE_SD_Exist</t>
-  </si>
-  <si>
-    <t>db_var.GW_Risk</t>
-  </si>
-  <si>
-    <t>db_var.Soil_Type</t>
-  </si>
-  <si>
-    <t>db_var.Count_CB</t>
-  </si>
-  <si>
-    <t>db_var.Runoff_Type</t>
-  </si>
-  <si>
-    <t>db_var.TFMR_Exist</t>
-  </si>
-  <si>
-    <t>db_var.DS_SS_Exist</t>
-  </si>
-  <si>
-    <t>db_var.Fac_Slope</t>
-  </si>
-  <si>
-    <t>db_var.Can_Add_SD</t>
-  </si>
-  <si>
-    <t>db_var.Pave_Area</t>
-  </si>
-  <si>
-    <t>db_var.Unpave_Area</t>
-  </si>
-  <si>
-    <t>db_var.EM_Area</t>
-  </si>
-  <si>
-    <t>db_var.Dmg_Pave</t>
-  </si>
-  <si>
-    <t>db_var.Fac_Type</t>
-  </si>
-  <si>
-    <t>db_var.100_Year_FP</t>
-  </si>
-  <si>
-    <t>db_var.Ex_Struct_BMP</t>
-  </si>
-  <si>
     <t>val.Yes</t>
   </si>
   <si>
@@ -259,10 +205,64 @@
     <t>val.None</t>
   </si>
   <si>
-    <t>db_expr.BMP_Size</t>
-  </si>
-  <si>
     <t>==</t>
+  </si>
+  <si>
+    <t>var.OFFSITE_SD_Exist</t>
+  </si>
+  <si>
+    <t>var.GW_Risk</t>
+  </si>
+  <si>
+    <t>var.Soil_Type</t>
+  </si>
+  <si>
+    <t>var.Count_CB</t>
+  </si>
+  <si>
+    <t>var.Runoff_Type</t>
+  </si>
+  <si>
+    <t>var.TFMR_Exist</t>
+  </si>
+  <si>
+    <t>var.DS_SS_Exist</t>
+  </si>
+  <si>
+    <t>var.Fac_Slope</t>
+  </si>
+  <si>
+    <t>var.Can_Add_SD</t>
+  </si>
+  <si>
+    <t>var.Pave_Area</t>
+  </si>
+  <si>
+    <t>var.Unpave_Area</t>
+  </si>
+  <si>
+    <t>var.EM_Area</t>
+  </si>
+  <si>
+    <t>var.Dmg_Pave</t>
+  </si>
+  <si>
+    <t>var.Fac_Type</t>
+  </si>
+  <si>
+    <t>var.100_Year_FP</t>
+  </si>
+  <si>
+    <t>var.Ex_Struct_BMP</t>
+  </si>
+  <si>
+    <t>Required Value (expession)</t>
+  </si>
+  <si>
+    <t>question_expession</t>
+  </si>
+  <si>
+    <t>exp.BMP_Size</t>
   </si>
 </sst>
 </file>
@@ -684,7 +684,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -697,10 +697,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -709,451 +709,451 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F2" t="str">
-        <f>_xlfn.CONCAT(C2,D2,E2)</f>
-        <v>db_var.OFFSITE_SD_Exist==val.Yes</v>
+        <f>_xlfn.CONCAT(RIGHT(C2,LEN(C2)-4),D2,RIGHT(E2,LEN(E2)-4))</f>
+        <v>OFFSITE_SD_Exist==Yes</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F22" si="0">_xlfn.CONCAT(C3,D3,E3)</f>
-        <v>db_var.GW_Risk!=val.High</v>
+        <f t="shared" ref="F3:F22" si="0">_xlfn.CONCAT(RIGHT(C3,LEN(C3)-4),D3,RIGHT(E3,LEN(E3)-4))</f>
+        <v>GW_Risk!=High</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>db_var.GW_Risk!=val.High</v>
+        <v>GW_Risk!=High</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>db_var.Soil_Type!=val.Rock</v>
+        <v>Soil_Type!=Rock</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>db_var.Soil_Type!=val.Rock</v>
+        <v>Soil_Type!=Rock</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>db_var.Soil_Type!=val.Clay</v>
+        <v>Soil_Type!=Clay</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>db_var.Count_CB&gt;val.0</v>
+        <v>Count_CB&gt;0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>db_var.Runoff_Type==val."*Piped Outlet"</v>
+        <v>Runoff_Type=="*Piped Outlet"</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>db_var.TFMR_Exist==val.Yes</v>
+        <v>TFMR_Exist==Yes</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>db_var.DS_SS_Exist==val.Yes</v>
+        <v>DS_SS_Exist==Yes</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>db_var.Fac_Slope&lt;val.0.08</v>
+        <v>Fac_Slope&lt;0.08</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>db_var.Can_Add_SD==val.Yes</v>
+        <v>Can_Add_SD==Yes</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>db_var.Pave_Area&gt;db_expr.BMP_Size</v>
+        <v>Pave_Area&gt;BMP_Size</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>db_var.Unpave_Area&gt;db_expr.BMP_Size</v>
+        <v>Unpave_Area&gt;BMP_Size</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>db_var.Pave_Area&gt;val.Det_Size</v>
+        <v>Pave_Area&gt;Det_Size</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>db_var.EM_Area&gt;val.0</v>
+        <v>EM_Area&gt;0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>db_var.Dmg_Pave&gt;val.0</v>
+        <v>Dmg_Pave&gt;0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>db_var.Fac_Type!=val.Closed Sanitary Landfill</v>
+        <v>Fac_Type!=Closed Sanitary Landfill</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>db_var.100_Year_FP==val.No</v>
+        <v>100_Year_FP==No</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>db_var.Runoff_Type==val.Sheet Flow</v>
+        <v>Runoff_Type==Sheet Flow</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>db_var.Ex_Struct_BMP==val.None</v>
+        <v>Ex_Struct_BMP==None</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/Feasibility Tester.xlsx
+++ b/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/Feasibility Tester.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonHonda\OneDrive\Projects\Big Data School\BigDataAnalyst_ProjectDocumentation\Sprint03_Data_Operation\_jonhonda_dat\special_prj\Input_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Projects\Big Data School\BigDataAnalyst_ProjectDocumentation\Sprint03_Data_Operation\_jonhonda_dat\special_prj\Input_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="1B239CB1FE9772A8A71CFADDC518BBC08B06F559" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{FEE3F923-7594-4781-AA1D-28D26BB813EC}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="1B239CB1FE9772A8A71CFADDC518BBC08B06F559" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{54A82AAB-F9A4-4769-A2A5-1C59DA0F9F99}"/>
   <bookViews>
     <workbookView xWindow="108" yWindow="24" windowWidth="16104" windowHeight="12408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,100 +169,100 @@
     <t>feas_id</t>
   </si>
   <si>
-    <t>val.Yes</t>
-  </si>
-  <si>
-    <t>val.High</t>
-  </si>
-  <si>
-    <t>val.Rock</t>
-  </si>
-  <si>
-    <t>val.Clay</t>
-  </si>
-  <si>
-    <t>val.0</t>
-  </si>
-  <si>
-    <t>val."*Piped Outlet"</t>
-  </si>
-  <si>
-    <t>val.0.08</t>
-  </si>
-  <si>
-    <t>val.Det_Size</t>
-  </si>
-  <si>
-    <t>val.Closed Sanitary Landfill</t>
-  </si>
-  <si>
-    <t>val.No</t>
-  </si>
-  <si>
-    <t>val.Sheet Flow</t>
-  </si>
-  <si>
-    <t>val.None</t>
-  </si>
-  <si>
     <t>==</t>
   </si>
   <si>
-    <t>var.OFFSITE_SD_Exist</t>
-  </si>
-  <si>
-    <t>var.GW_Risk</t>
-  </si>
-  <si>
-    <t>var.Soil_Type</t>
-  </si>
-  <si>
-    <t>var.Count_CB</t>
-  </si>
-  <si>
-    <t>var.Runoff_Type</t>
-  </si>
-  <si>
-    <t>var.TFMR_Exist</t>
-  </si>
-  <si>
-    <t>var.DS_SS_Exist</t>
-  </si>
-  <si>
-    <t>var.Fac_Slope</t>
-  </si>
-  <si>
-    <t>var.Can_Add_SD</t>
-  </si>
-  <si>
-    <t>var.Pave_Area</t>
-  </si>
-  <si>
-    <t>var.Unpave_Area</t>
-  </si>
-  <si>
-    <t>var.EM_Area</t>
-  </si>
-  <si>
-    <t>var.Dmg_Pave</t>
-  </si>
-  <si>
-    <t>var.Fac_Type</t>
-  </si>
-  <si>
-    <t>var.100_Year_FP</t>
-  </si>
-  <si>
-    <t>var.Ex_Struct_BMP</t>
-  </si>
-  <si>
     <t>Required Value (expession)</t>
   </si>
   <si>
     <t>question_expession</t>
   </si>
   <si>
-    <t>exp.BMP_Size</t>
+    <t>var|OFFSITE_SD_Exist</t>
+  </si>
+  <si>
+    <t>var|GW_Risk</t>
+  </si>
+  <si>
+    <t>var|Soil_Type</t>
+  </si>
+  <si>
+    <t>var|Count_CB</t>
+  </si>
+  <si>
+    <t>var|Runoff_Type</t>
+  </si>
+  <si>
+    <t>var|TFMR_Exist</t>
+  </si>
+  <si>
+    <t>var|DS_SS_Exist</t>
+  </si>
+  <si>
+    <t>var|Fac_Slope</t>
+  </si>
+  <si>
+    <t>var|Can_Add_SD</t>
+  </si>
+  <si>
+    <t>var|Pave_Area</t>
+  </si>
+  <si>
+    <t>var|Unpave_Area</t>
+  </si>
+  <si>
+    <t>var|EM_Area</t>
+  </si>
+  <si>
+    <t>var|Dmg_Pave</t>
+  </si>
+  <si>
+    <t>var|Fac_Type</t>
+  </si>
+  <si>
+    <t>var|100_Year_FP</t>
+  </si>
+  <si>
+    <t>var|Ex_Struct_BMP</t>
+  </si>
+  <si>
+    <t>val|Yes</t>
+  </si>
+  <si>
+    <t>val|High</t>
+  </si>
+  <si>
+    <t>val|Rock</t>
+  </si>
+  <si>
+    <t>val|Clay</t>
+  </si>
+  <si>
+    <t>val|0</t>
+  </si>
+  <si>
+    <t>val|"*Piped Outlet"</t>
+  </si>
+  <si>
+    <t>exp|BMP_Size</t>
+  </si>
+  <si>
+    <t>val|Det_Size</t>
+  </si>
+  <si>
+    <t>val|Closed Sanitary Landfill</t>
+  </si>
+  <si>
+    <t>val|No</t>
+  </si>
+  <si>
+    <t>val|Sheet Flow</t>
+  </si>
+  <si>
+    <t>val|None</t>
+  </si>
+  <si>
+    <t>val|0.08</t>
   </si>
 </sst>
 </file>
@@ -684,7 +684,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,10 +709,10 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -723,13 +723,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F2" t="str">
         <f>_xlfn.CONCAT(RIGHT(C2,LEN(C2)-4),D2,RIGHT(E2,LEN(E2)-4))</f>
@@ -744,13 +744,13 @@
         <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F22" si="0">_xlfn.CONCAT(RIGHT(C3,LEN(C3)-4),D3,RIGHT(E3,LEN(E3)-4))</f>
@@ -765,13 +765,13 @@
         <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -786,13 +786,13 @@
         <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -807,13 +807,13 @@
         <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -828,13 +828,13 @@
         <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -849,13 +849,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -870,13 +870,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -891,13 +891,13 @@
         <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -912,13 +912,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
         <v>68</v>
-      </c>
-      <c r="D11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" t="s">
-        <v>49</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -933,13 +933,13 @@
         <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -954,13 +954,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -975,13 +975,13 @@
         <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -996,13 +996,13 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -1017,13 +1017,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -1038,13 +1038,13 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -1059,13 +1059,13 @@
         <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -1080,13 +1080,13 @@
         <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -1101,13 +1101,13 @@
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -1122,13 +1122,13 @@
         <v>15</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -1143,13 +1143,13 @@
         <v>26</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
